--- a/Server/Server/GameData/Mode.xlsx
+++ b/Server/Server/GameData/Mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D2544-5106-4E9F-9C98-3F59DEA4F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B73A1-6EDE-418F-9C0E-01662B90A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="18240" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -47,6 +47,8 @@
     <author>tc={73F5B606-6EC7-482A-AF20-FD8E26858F0D}</author>
     <author>tc={B7346746-9A4F-4615-A15C-D436AE49E0F6}</author>
     <author>tc={D870D129-85E9-4F6D-9E45-7B1FEBB6CAA8}</author>
+    <author>tc={88CE1FF4-22D1-421C-B7EE-F7ED5235DFA3}</author>
+    <author>tc={9697BE6A-B027-46CA-BA1B-C19F925F4017}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0F58DA77-08B0-4785-9B47-A75BBA518C8C}">
@@ -104,6 +106,26 @@
 Play_Map = 2  → 폭탄 투입구 3개인 맵
 Play_Map = 3  → 폭탄 투입구 5개인 맵
 </t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{88CE1FF4-22D1-421C-B7EE-F7ED5235DFA3}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임 모드 활성화 날짜
+Open_Date = 0  → 현재 서비스
+Open_Date = 202409130000→ 2024년 9월 13일 00시 00분 서비스 시작</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{9697BE6A-B027-46CA-BA1B-C19F925F4017}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임모드 비활성화 시간
+Close_Date= 0 -&gt; 비활성화 시간 없음
+Close_Date= 202409140000 -&gt; 2024년 9월 14일 00시 00분 게임모드 비활성화</t>
       </text>
     </comment>
   </commentList>
@@ -248,8 +270,102 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F0CF7482-E735-437C-9DC6-4BF147561C58}</author>
+    <author>tc={97567E1F-0353-4F01-8D78-35A9910920B8}</author>
+    <author>tc={5DFA0A8A-D30B-4FEB-87B2-95904BC101A4}</author>
+    <author>tc={50DA90FD-0A2A-4970-9D4A-3AE5BA7CF025}</author>
+    <author>tc={BB780834-55B8-42C2-A32E-8C08CCEC43B1}</author>
+    <author>tc={19666655-34CC-4673-AEFE-0D2806B514AD}</author>
+    <author>tc={08802F32-2244-4F60-A516-B6E9ECCC38F8}</author>
+    <author>tc={CE658A93-4981-4684-AA12-9413ADA4193D}</author>
+    <author>tc={9F41D434-E2F0-4323-AB05-222BC1268E6E}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F0CF7482-E735-437C-9DC6-4BF147561C58}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임 승패 
+Battle_Result = 0 -&gt; 승리
+Battle_Result = 1 -&gt; 패배</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{97567E1F-0353-4F01-8D78-35A9910920B8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Kill당 얻는 포인트</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{5DFA0A8A-D30B-4FEB-87B2-95904BC101A4}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Death당 잃는 포인트</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="3" shapeId="0" xr:uid="{50DA90FD-0A2A-4970-9D4A-3AE5BA7CF025}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    폭탄을 넣을 때 마다 얻는 포인트
+단, 자신의 팀에게 폭탄을 넣으면 올라가지 않음</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="4" shapeId="0" xr:uid="{BB780834-55B8-42C2-A32E-8C08CCEC43B1}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    모든 포인트 합산 시 얻는 골드 계수</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{19666655-34CC-4673-AEFE-0D2806B514AD}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    기본보상
+Index4000  -&gt; 골드</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{08802F32-2244-4F60-A516-B6E9ECCC38F8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    기본보상 계수</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="7" shapeId="0" xr:uid="{CE658A93-4981-4684-AA12-9413ADA4193D}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    추가 보상</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="8" shapeId="0" xr:uid="{9F41D434-E2F0-4323-AB05-222BC1268E6E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    이벤트 보상</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,22 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon1_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon2_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block1_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block2_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Block2_Spawn_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,6 +520,90 @@
   </si>
   <si>
     <t>Close_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon1_Spawn_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block1_Spawn_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon2_Spawn_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block2_Spawn_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Map_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Map_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle_Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward1_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward1_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward2_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward2_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward3_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward3_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mvp_Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +723,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,6 +1095,16 @@
 Play_Map = 3  → 폭탄 투입구 5개인 맵
 </text>
   </threadedComment>
+  <threadedComment ref="H1" dT="2024-09-13T06:11:58.63" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{88CE1FF4-22D1-421C-B7EE-F7ED5235DFA3}">
+    <text>게임 모드 활성화 날짜
+Open_Date = 0  → 현재 서비스
+Open_Date = 202409130000→ 2024년 9월 13일 00시 00분 서비스 시작</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-09-13T06:18:29.33" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{9697BE6A-B027-46CA-BA1B-C19F925F4017}">
+    <text>게임모드 비활성화 시간
+Close_Date= 0 -&gt; 비활성화 시간 없음
+Close_Date= 202409140000 -&gt; 2024년 9월 14일 00시 00분 게임모드 비활성화</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -961,12 +1158,48 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2024-09-16T13:16:54.85" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F0CF7482-E735-437C-9DC6-4BF147561C58}">
+    <text>게임 승패 
+Battle_Result = 0 -&gt; 승리
+Battle_Result = 1 -&gt; 패배</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-09-13T07:51:25.47" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{97567E1F-0353-4F01-8D78-35A9910920B8}">
+    <text>Kill당 얻는 포인트</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-09-13T07:52:06.50" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5DFA0A8A-D30B-4FEB-87B2-95904BC101A4}">
+    <text>Death당 잃는 포인트</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-09-13T07:52:44.67" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{50DA90FD-0A2A-4970-9D4A-3AE5BA7CF025}">
+    <text>폭탄을 넣을 때 마다 얻는 포인트
+단, 자신의 팀에게 폭탄을 넣으면 올라가지 않음</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-09-13T07:53:53.77" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{BB780834-55B8-42C2-A32E-8C08CCEC43B1}">
+    <text>모든 포인트 합산 시 얻는 골드 계수</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2024-09-13T07:34:23.33" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{19666655-34CC-4673-AEFE-0D2806B514AD}">
+    <text>기본보상
+Index4000  -&gt; 골드</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2024-09-13T07:39:30.56" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{08802F32-2244-4F60-A516-B6E9ECCC38F8}">
+    <text>기본보상 계수</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2024-09-13T07:34:31.43" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{CE658A93-4981-4684-AA12-9413ADA4193D}">
+    <text>추가 보상</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2024-09-13T07:34:39.59" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{9F41D434-E2F0-4323-AB05-222BC1268E6E}">
+    <text>이벤트 보상</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEEDF28-A1C3-4371-BE76-9CD596258C92}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -988,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -996,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F44A101-702B-41DD-BF5A-46F7D2E703B7}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1020,8 +1253,8 @@
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1031,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1042,17 +1275,17 @@
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1060,7 +1293,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1074,8 +1307,8 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
+      <c r="G2" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1089,7 +1322,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1103,8 +1336,8 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
-        <v>2</v>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1118,7 +1351,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1132,8 +1365,8 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
-        <v>3</v>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1147,7 +1380,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1161,8 +1394,8 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1176,7 +1409,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1190,8 +1423,8 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1211,13 +1444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.58203125" bestFit="1" customWidth="1"/>
@@ -1225,16 +1458,16 @@
     <col min="6" max="6" width="21.4140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.58203125" customWidth="1"/>
     <col min="11" max="11" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.58203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.58203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.58203125" bestFit="1" customWidth="1"/>
@@ -1254,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>15</v>
@@ -1266,40 +1499,40 @@
         <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -1339,6 +1572,30 @@
       <c r="L2">
         <v>2002</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>3001</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="R2">
+        <v>3002</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
@@ -1377,6 +1634,30 @@
       <c r="L3">
         <v>2002</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>3001</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>3002</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1415,6 +1696,30 @@
       <c r="L4">
         <v>2002</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>3001</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>3002</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1453,6 +1758,30 @@
       <c r="L5">
         <v>2002</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>3001</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>3002</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1490,6 +1819,30 @@
       </c>
       <c r="L6">
         <v>2002</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>3001</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>3002</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1500,16 +1853,562 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>4000</v>
+      </c>
+      <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4">
+        <v>4000</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>4000</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>4000</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>4000</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>124</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>4000</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>4000</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>4000</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <v>4000</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>